--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail10 Features.xlsx
@@ -3427,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,29 +3438,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,115 +3479,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3606,72 +3594,66 @@
         <v>5.58834670426478e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2309730324323022</v>
+        <v>1.863272269628792e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.271948794267713</v>
+        <v>2.513020263822703e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.863272269628792e-07</v>
+        <v>-0.01599232327612625</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.513020263822703e-06</v>
+        <v>0.1912232495488967</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01599232327612625</v>
+        <v>0.03676677415681114</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1912232495488967</v>
+        <v>1.875206680324327</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03676677415681114</v>
+        <v>2.062629313576639</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.856157421142634</v>
+        <v>3.759549490918844</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.062629313576639</v>
+        <v>5.608266389068473e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.759549490918844</v>
+        <v>292550668.6618038</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.608266389068473e-16</v>
+        <v>4.04769770110335e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>292550668.6618038</v>
+        <v>47.99884912094059</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.04769770110335e-07</v>
+        <v>0.0001956945160588234</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>47.99884912094059</v>
+        <v>12.4692225481201</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001956945160588234</v>
+        <v>1.06858320967395</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.4692225481201</v>
+        <v>0.03042687904234467</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.06858320967395</v>
+        <v>2.522717736344038</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03042687904234467</v>
+        <v>0.962529320009229</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.522717736344038</v>
+        <v>1.506368835712323</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.962529320009229</v>
+        <v>21</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.506368835712323</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2466632319630979</v>
       </c>
     </row>
@@ -3686,72 +3668,66 @@
         <v>5.646447512978958e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2318406591016567</v>
+        <v>1.863272269628792e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.294444748646112</v>
+        <v>2.512501271299637e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.863272269628792e-07</v>
+        <v>-0.003687641848416149</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.512501271299637e-06</v>
+        <v>0.1624805453579999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.003687641848416149</v>
+        <v>0.02639062792539313</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1624805453579999</v>
+        <v>1.871775780223113</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02639062792539313</v>
+        <v>1.928803049417711</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.849795616273727</v>
+        <v>3.575064755279087</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.928803049417711</v>
+        <v>6.202009419642369e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.575064755279087</v>
+        <v>267229206.9691078</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.202009419642369e-16</v>
+        <v>4.441232650640479e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>267229206.9691078</v>
+        <v>44.28944797239231</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.441232650640479e-07</v>
+        <v>0.0001836808734602316</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>44.28944797239231</v>
+        <v>12.04415363663863</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001836808734602316</v>
+        <v>1.081590797477053</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.04415363663863</v>
+        <v>0.02664504815721139</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.081590797477053</v>
+        <v>2.582339794341568</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02664504815721139</v>
+        <v>0.9629032372342188</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.582339794341568</v>
+        <v>1.518574528711429</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9629032372342188</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.518574528711429</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2324960074016752</v>
       </c>
     </row>
@@ -3766,72 +3742,66 @@
         <v>5.647072853530176e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.2312004730920479</v>
+        <v>1.863272269628792e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.296572311387496</v>
+        <v>2.512493888178048e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.863272269628792e-07</v>
+        <v>0.002377941265749974</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.512493888178048e-06</v>
+        <v>0.1522447262052664</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.002377941265749974</v>
+        <v>0.0231785948553509</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1522447262052664</v>
+        <v>1.871123155344427</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0231785948553509</v>
+        <v>1.881895990948991</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.848081306643055</v>
+        <v>3.501691178082643</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.881895990948991</v>
+        <v>6.464643238097484e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.501691178082643</v>
+        <v>255514113.9446453</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.464643238097484e-16</v>
+        <v>4.636645523370939e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>255514113.9446453</v>
+        <v>42.20601524977845</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.636645523370939e-07</v>
+        <v>0.0001765833282616679</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>42.20601524977845</v>
+        <v>9.445682431688125</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001765833282616679</v>
+        <v>1.359679350119321</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.445682431688125</v>
+        <v>0.01575492640383797</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.359679350119321</v>
+        <v>2.810014410252786</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01575492640383797</v>
+        <v>0.9635299486429921</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.810014410252786</v>
+        <v>1.526059586276821</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9635299486429921</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.526059586276821</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2009108853889588</v>
       </c>
     </row>
@@ -3846,72 +3816,66 @@
         <v>5.618392870745203e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2184561989155997</v>
+        <v>1.86326210246976e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.315634583818895</v>
+        <v>2.512667562411104e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.86326210246976e-07</v>
+        <v>0.002941260195710468</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.512667562411104e-06</v>
+        <v>0.1522253096254656</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.002941260195710468</v>
+        <v>0.02318058064678293</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1522253096254656</v>
+        <v>1.873458408011029</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02318058064678293</v>
+        <v>1.841294991446184</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.846616284500019</v>
+        <v>3.636295734106144</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.841294991446184</v>
+        <v>5.994898767231049e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.636295734106144</v>
+        <v>276180131.848397</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.994898767231049e-16</v>
+        <v>4.293492575228486e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>276180131.848397</v>
+        <v>45.72636924641004</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.293492575228486e-07</v>
+        <v>0.0001701775851046457</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>45.72636924641004</v>
+        <v>8.539169853514759</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001701775851046457</v>
+        <v>1.447683657718885</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.539169853514759</v>
+        <v>0.01240891075179837</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.447683657718885</v>
+        <v>2.84783372591105</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01240891075179837</v>
+        <v>0.9645654199894627</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.84783372591105</v>
+        <v>1.545309591042943</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9645654199894627</v>
+        <v>32</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.545309591042943</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.202370923500833</v>
       </c>
     </row>
@@ -3926,72 +3890,66 @@
         <v>5.601089248463766e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2098676388739982</v>
+        <v>1.832013279438019e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.330053789698867</v>
+        <v>2.512768196344843e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.832013279438019e-07</v>
+        <v>0.0004621871545119282</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.512768196344843e-06</v>
+        <v>0.1530098762787069</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0004621871545119282</v>
+        <v>0.02341131254320948</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1530098762787069</v>
+        <v>1.871490327705547</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02341131254320948</v>
+        <v>1.854248009973424</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.84539840688768</v>
+        <v>3.884221300235974</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.854248009973424</v>
+        <v>5.254027186867742e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.884221300235974</v>
+        <v>313012146.9809079</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.254027186867742e-16</v>
+        <v>3.79189467654137e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>313012146.9809079</v>
+        <v>51.4771741920996</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.79189467654137e-07</v>
+        <v>0.0001646000412433509</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>51.4771741920996</v>
+        <v>9.261979240063559</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001646000412433509</v>
+        <v>1.259078234595494</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.261979240063559</v>
+        <v>0.01412009264240874</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.259078234595494</v>
+        <v>2.77299355255245</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01412009264240874</v>
+        <v>0.9635249958501022</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.77299355255245</v>
+        <v>1.527865360610356</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9635249958501022</v>
+        <v>36</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.527865360610356</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2224438742608003</v>
       </c>
     </row>
@@ -4006,72 +3964,66 @@
         <v>5.610028830278072e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2144194034198285</v>
+        <v>1.867365345552852e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.322217247550333</v>
+        <v>2.512716824089123e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.867365345552852e-07</v>
+        <v>-0.002279434800674854</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.512716824089123e-06</v>
+        <v>0.1529024147024527</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.002279434800674854</v>
+        <v>0.02338345610904138</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1529024147024527</v>
+        <v>1.878264832064732</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02338345610904138</v>
+        <v>1.975117144851699</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.849212553044733</v>
+        <v>4.000850918519335</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.975117144851699</v>
+        <v>4.952169591787203e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.000850918519335</v>
+        <v>320810522.8556857</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.952169591787203e-16</v>
+        <v>3.702822928715266e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>320810522.8556857</v>
+        <v>50.96742813626501</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.702822928715266e-07</v>
+        <v>0.0001683672723733106</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>50.96742813626501</v>
+        <v>10.66956263044928</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001683672723733106</v>
+        <v>1.121076390261488</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.66956263044928</v>
+        <v>0.01916685733766117</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.121076390261488</v>
+        <v>2.587499218713804</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01916685733766117</v>
+        <v>0.9637426596290167</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.587499218713804</v>
+        <v>1.544813792447615</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9637426596290167</v>
+        <v>76</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.544813792447615</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2459864008572598</v>
       </c>
     </row>
@@ -4086,72 +4038,66 @@
         <v>5.646387923581592e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2325012736850393</v>
+        <v>1.915910130602184e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.291474008087113</v>
+        <v>2.512506731541427e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.915910130602184e-07</v>
+        <v>-0.005330449365681349</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.512506731541427e-06</v>
+        <v>0.1516979489019812</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.005330449365681349</v>
+        <v>0.02303897773887368</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1516979489019812</v>
+        <v>1.878766991662604</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02303897773887368</v>
+        <v>1.924801552366726</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.848828818951495</v>
+        <v>4.080588436995359</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.924801552366726</v>
+        <v>4.760522888030764e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.080588436995359</v>
+        <v>321579603.1365843</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.760522888030764e-16</v>
+        <v>3.684677814135203e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>321579603.1365843</v>
+        <v>49.23020535411786</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.684677814135203e-07</v>
+        <v>0.0001706008758224</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>49.23020535411786</v>
+        <v>10.48457860567871</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001706008758224</v>
+        <v>1.144786708716991</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.48457860567871</v>
+        <v>0.01875353816068809</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.144786708716991</v>
+        <v>2.670841165719078</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01875353816068809</v>
+        <v>0.9647649795252012</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.670841165719078</v>
+        <v>1.557863810947524</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9647649795252012</v>
+        <v>76</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.557863810947524</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2464942220812643</v>
       </c>
     </row>
@@ -4166,72 +4112,66 @@
         <v>5.71682440337058e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2635619961608683</v>
+        <v>1.952315900278147e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.243597835882246</v>
+        <v>2.512084533296258e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.952315900278147e-07</v>
+        <v>-0.009797152302606856</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.512084533296258e-06</v>
+        <v>0.1472963266163442</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.009797152302606856</v>
+        <v>0.02178705207375125</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1472963266163442</v>
+        <v>1.896276009029773</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02178705207375125</v>
+        <v>1.892178435915724</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.879040706866344</v>
+        <v>4.01837074871793</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.892178435915724</v>
+        <v>4.909081465131155e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.01837074871793</v>
+        <v>308746120.3289436</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.909081465131155e-16</v>
+        <v>3.856217617790887e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>308746120.3289436</v>
+        <v>46.79541005061709</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.856217617790887e-07</v>
+        <v>0.0001953044309751329</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>46.79541005061709</v>
+        <v>9.127877791537186</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001953044309751329</v>
+        <v>1.564934633681063</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.127877791537186</v>
+        <v>0.01627240445711849</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.564934633681063</v>
+        <v>2.779035870451811</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01627240445711849</v>
+        <v>0.9649658286315328</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.779035870451811</v>
+        <v>1.490527259198325</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9649658286315328</v>
+        <v>73</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.490527259198325</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2247087750221704</v>
       </c>
     </row>
@@ -4608,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.371325345360831</v>
+        <v>1.363226472142878</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.082445701413835</v>
@@ -4697,7 +4637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.386862996513951</v>
+        <v>1.3808654953334</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.024942836235568</v>
@@ -4786,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380743423611126</v>
+        <v>1.375053011589489</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.136835987068752</v>
@@ -4875,7 +4815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.393516526680792</v>
+        <v>1.384276552799466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.054735522152405</v>
@@ -4964,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.395424809363571</v>
+        <v>1.38726373175083</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.023963579506813</v>
@@ -5053,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.418144401614106</v>
+        <v>1.406884621447905</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.999861066835632</v>
@@ -5142,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.433713139166454</v>
+        <v>1.419482574177519</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.046240460687073</v>
@@ -5231,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.424776340980652</v>
+        <v>1.411618115698773</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.029198037457449</v>
@@ -5320,7 +5260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436721570440179</v>
+        <v>1.420298307972765</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.022491205858639</v>
@@ -5409,7 +5349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.491468852204328</v>
+        <v>1.472885332091615</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.541422786536504</v>
@@ -5498,7 +5438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.474877886124185</v>
+        <v>1.460412613380155</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.147800020396065</v>
@@ -5587,7 +5527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.478883852422797</v>
+        <v>1.458831406541311</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.058483098663396</v>
@@ -5676,7 +5616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.476769734369946</v>
+        <v>1.46151393195294</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.114877984580231</v>
@@ -5765,7 +5705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.412108977310212</v>
+        <v>1.401755436775975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.094334048822617</v>
@@ -5854,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.383496418301233</v>
+        <v>1.363802141352151</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.14719902366516</v>
@@ -5943,7 +5883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.382463571834009</v>
+        <v>1.362390012163075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.14132148278949</v>
@@ -6032,7 +5972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.379111617405255</v>
+        <v>1.355921700262682</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.044225139208493</v>
@@ -6121,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.389388338383489</v>
+        <v>1.366784142824456</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.179786139459087</v>
@@ -6210,7 +6150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.397328774968416</v>
+        <v>1.376161606667722</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.117548168926769</v>
@@ -6299,7 +6239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.392266893745184</v>
+        <v>1.372150194767317</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.062024948028756</v>
@@ -6388,7 +6328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.396233547907332</v>
+        <v>1.375106624176719</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.080847577955805</v>
@@ -6477,7 +6417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.381964334870466</v>
+        <v>1.364761156225151</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.097397410627651</v>
@@ -6566,7 +6506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.384476925783841</v>
+        <v>1.369561429527621</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.121389481512095</v>
@@ -6655,7 +6595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.378807796082231</v>
+        <v>1.364406193808299</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.051255351283166</v>
@@ -6744,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.394719211405669</v>
+        <v>1.380103604798002</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.245154398405327</v>
@@ -6833,7 +6773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.396830064333352</v>
+        <v>1.378312781486295</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.077844872997956</v>
@@ -6922,7 +6862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390832423883349</v>
+        <v>1.380592598174298</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.116705429785573</v>
@@ -7011,7 +6951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.415273688836886</v>
+        <v>1.404341171707603</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.927280322404883</v>
@@ -7100,7 +7040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454339018211082</v>
+        <v>1.438654448805914</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.087192477995838</v>
@@ -7189,7 +7129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.501386356311935</v>
+        <v>1.489101195058349</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.105898180481777</v>
@@ -7278,7 +7218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.522071457287751</v>
+        <v>1.512725366519569</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.261086445544455</v>
@@ -7367,7 +7307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491547200965747</v>
+        <v>1.484424325945797</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.353677889472154</v>
@@ -7456,7 +7396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.484269974313276</v>
+        <v>1.482156981891901</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.31326418428032</v>
@@ -7545,7 +7485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.48246215746599</v>
+        <v>1.47999871855306</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.372743915205518</v>
@@ -7634,7 +7574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.493894751508109</v>
+        <v>1.488380973150331</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.315737864793344</v>
@@ -7723,7 +7663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.497508761328046</v>
+        <v>1.494222586068636</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.301268808240316</v>
@@ -7812,7 +7752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.477581263017522</v>
+        <v>1.471056634390061</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.302780405212564</v>
@@ -7901,7 +7841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.453881723236099</v>
+        <v>1.439274571960665</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.411364773783091</v>
@@ -7990,7 +7930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.434852341297692</v>
+        <v>1.425923409914435</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.287274615763094</v>
@@ -8079,7 +8019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.414379955527657</v>
+        <v>1.407353936701675</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.24186857621885</v>
@@ -8168,7 +8108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.418068400957095</v>
+        <v>1.411844849950565</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.183640306669644</v>
@@ -8257,7 +8197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.410474292514192</v>
+        <v>1.400945916226365</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.369944401193869</v>
@@ -8346,7 +8286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.390072208142018</v>
+        <v>1.386147757349668</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.201641383458074</v>
@@ -8435,7 +8375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.390127561330747</v>
+        <v>1.386852184470652</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.29350114130545</v>
@@ -8524,7 +8464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.391217862662175</v>
+        <v>1.391827950796965</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.371802250212032</v>
@@ -8613,7 +8553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.385475218507634</v>
+        <v>1.383735060059273</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.171825416743379</v>
@@ -8702,7 +8642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.407202544485404</v>
+        <v>1.402928297599558</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.346884071437752</v>
@@ -8791,7 +8731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.402895702192819</v>
+        <v>1.393872546132884</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.326895365048084</v>
@@ -8880,7 +8820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.375970938591894</v>
+        <v>1.367820838026089</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.22467458936866</v>
@@ -8969,7 +8909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.357681862962557</v>
+        <v>1.352337545510516</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.29481130021139</v>
@@ -9058,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.361757620223057</v>
+        <v>1.350713922561099</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.369213083111468</v>
@@ -9147,7 +9087,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.381417148236761</v>
+        <v>1.371526782076299</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.370775785052543</v>
@@ -9236,7 +9176,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.409286112528412</v>
+        <v>1.39988655920762</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.371370272500628</v>
@@ -9522,7 +9462,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586088522370046</v>
+        <v>1.57676867009694</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.085415233338236</v>
@@ -9611,7 +9551,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.584189445287551</v>
+        <v>1.575608780118061</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.050879383281922</v>
@@ -9700,7 +9640,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600512327556302</v>
+        <v>1.592077295259028</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.144253894165784</v>
@@ -9789,7 +9729,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.586666187512992</v>
+        <v>1.578093093799169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.128648776004376</v>
@@ -9878,7 +9818,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592084472603158</v>
+        <v>1.58229504495322</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.604382895118832</v>
@@ -9967,7 +9907,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.59795249267265</v>
+        <v>1.590543145825761</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.009063310947702</v>
@@ -10056,7 +9996,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601833041432319</v>
+        <v>1.592706477189111</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.018409599449494</v>
@@ -10145,7 +10085,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605413420432183</v>
+        <v>1.601660540017363</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.995226542833775</v>
@@ -10234,7 +10174,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610703011101471</v>
+        <v>1.605324238428123</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.919986741623962</v>
@@ -10323,7 +10263,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64195566864012</v>
+        <v>1.631323760832045</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.151781895811876</v>
@@ -10412,7 +10352,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.640721888311324</v>
+        <v>1.63312359129507</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.351837175299661</v>
@@ -10501,7 +10441,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.641015757769696</v>
+        <v>1.635480323535645</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.342927387331441</v>
@@ -10590,7 +10530,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.641249979008049</v>
+        <v>1.6358356767951</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.362005925856132</v>
@@ -10679,7 +10619,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615577816629439</v>
+        <v>1.615841078029479</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.722648328803777</v>
@@ -10768,7 +10708,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.617431621764712</v>
+        <v>1.613265400951309</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.498021850727457</v>
@@ -10857,7 +10797,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.613363134555362</v>
+        <v>1.608787802842834</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.631767543995164</v>
@@ -10946,7 +10886,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.625463113726364</v>
+        <v>1.6179268464548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.562113545275191</v>
@@ -11035,7 +10975,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.621210241129223</v>
+        <v>1.610493508488196</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.544455097894931</v>
@@ -11124,7 +11064,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.636735191957823</v>
+        <v>1.627811859581564</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.810701857670381</v>
@@ -11213,7 +11153,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.634191103457196</v>
+        <v>1.628839347900841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.941702180122076</v>
@@ -11302,7 +11242,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.622360977200383</v>
+        <v>1.618990793423878</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.693978519154167</v>
@@ -11391,7 +11331,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624525712034095</v>
+        <v>1.62115081854603</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.629585877328791</v>
@@ -11480,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.630005966473153</v>
+        <v>1.624520212258332</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.602642831561154</v>
@@ -11569,7 +11509,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.615513546176915</v>
+        <v>1.613129778255238</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.690151809488488</v>
@@ -11658,7 +11598,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620096145996134</v>
+        <v>1.614134709276956</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.66351118489343</v>
@@ -11747,7 +11687,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.616378487877089</v>
+        <v>1.610251226391919</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.715570245095507</v>
@@ -11836,7 +11776,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.606149359876222</v>
+        <v>1.604578743287518</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.504794044493325</v>
@@ -11925,7 +11865,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624453289237462</v>
+        <v>1.623656733363563</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.556176292619363</v>
@@ -12014,7 +11954,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.650191600407505</v>
+        <v>1.647507025891451</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.224958924974091</v>
@@ -12103,7 +12043,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.656179365818062</v>
+        <v>1.653566982137566</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.120358511551291</v>
@@ -12192,7 +12132,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.656274601620626</v>
+        <v>1.652699720982433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.248328665209661</v>
@@ -12281,7 +12221,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654626601989311</v>
+        <v>1.648988471633993</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.271943075561025</v>
@@ -12370,7 +12310,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.651225749879057</v>
+        <v>1.648065482326705</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.081241100744991</v>
@@ -12459,7 +12399,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.652886882485195</v>
+        <v>1.646365350454203</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.844280784646944</v>
@@ -12548,7 +12488,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.654249311974437</v>
+        <v>1.640329938064535</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.094089890764196</v>
@@ -12637,7 +12577,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.653734769549551</v>
+        <v>1.635810873775119</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.852297538386393</v>
@@ -12726,7 +12666,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.630000969613779</v>
+        <v>1.613248535013455</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.211946621228662</v>
@@ -12815,7 +12755,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614132422608036</v>
+        <v>1.59879872681109</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.161817761257132</v>
@@ -12904,7 +12844,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.611139799495432</v>
+        <v>1.594745962922388</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.890077053727777</v>
@@ -12993,7 +12933,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.585223485684616</v>
+        <v>1.572593630414383</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.671468008535815</v>
@@ -13082,7 +13022,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.584387461455119</v>
+        <v>1.570645291928673</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.976755434208951</v>
@@ -13171,7 +13111,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.593652266278076</v>
+        <v>1.570744737188262</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.696471550937155</v>
@@ -13260,7 +13200,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.579684909238161</v>
+        <v>1.555375565805095</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.750795528420312</v>
@@ -13349,7 +13289,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.576229852514026</v>
+        <v>1.54760620583663</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.68913823509124</v>
@@ -13438,7 +13378,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580590189494257</v>
+        <v>1.556626141756962</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.99258021998296</v>
@@ -13527,7 +13467,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.582679643321502</v>
+        <v>1.564025695966744</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.876694589009342</v>
@@ -13616,7 +13556,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573263070522004</v>
+        <v>1.556424293385237</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.658738324204154</v>
@@ -13705,7 +13645,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.580106655192933</v>
+        <v>1.560504448076254</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.925220505317396</v>
@@ -13794,7 +13734,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57242953794495</v>
+        <v>1.552636669159525</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.790780142775123</v>
@@ -13883,7 +13823,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563380236604612</v>
+        <v>1.546200059904907</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.740425113709998</v>
@@ -13972,7 +13912,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565344842439142</v>
+        <v>1.54612261191325</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.668814036427845</v>
@@ -14061,7 +14001,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.574616927819215</v>
+        <v>1.561920997913414</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.800866629736054</v>
@@ -14150,7 +14090,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.593083203182111</v>
+        <v>1.578108204903513</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.973550184876573</v>
@@ -14436,7 +14376,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537487212661493</v>
+        <v>1.495090468847054</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.944554408257392</v>
@@ -14525,7 +14465,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.536137407458564</v>
+        <v>1.497728624320366</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.894449016962593</v>
@@ -14614,7 +14554,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.528542069555793</v>
+        <v>1.493481748739372</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.765750028767194</v>
@@ -14703,7 +14643,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53106803452286</v>
+        <v>1.495186869814818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.821689302862042</v>
@@ -14792,7 +14732,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526685624357204</v>
+        <v>1.495598781524734</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.903108018531162</v>
@@ -14881,7 +14821,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.531876468775812</v>
+        <v>1.50343087260776</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.944733559265195</v>
@@ -14970,7 +14910,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534533935265058</v>
+        <v>1.502599955387274</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.863177972549491</v>
@@ -15059,7 +14999,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540783684211158</v>
+        <v>1.51422441349723</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.011839816087292</v>
@@ -15148,7 +15088,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.539065554004128</v>
+        <v>1.512986550592342</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.800683151565694</v>
@@ -15237,7 +15177,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.548010052828892</v>
+        <v>1.519058692259527</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.696072471103384</v>
@@ -15326,7 +15266,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.545088821533416</v>
+        <v>1.516819912748663</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.622517253630166</v>
@@ -15415,7 +15355,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.560189956516451</v>
+        <v>1.531286133525778</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.944112928573136</v>
@@ -15504,7 +15444,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560961985951837</v>
+        <v>1.540271530172224</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.929028389930767</v>
@@ -15593,7 +15533,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.536991574804655</v>
+        <v>1.520442429818321</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.019944083741492</v>
@@ -15682,7 +15622,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531993088024569</v>
+        <v>1.510626535191659</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.01894629208336</v>
@@ -15771,7 +15711,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.527855747396301</v>
+        <v>1.510025398782327</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.742242989308138</v>
@@ -15860,7 +15800,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.524488629590666</v>
+        <v>1.502264073030499</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.918141271593879</v>
@@ -15949,7 +15889,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.531642973854675</v>
+        <v>1.512488361699994</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.976870087557765</v>
@@ -16038,7 +15978,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531981183483893</v>
+        <v>1.513895374735026</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.640061733980616</v>
@@ -16127,7 +16067,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533842200350768</v>
+        <v>1.516346885115261</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.936584993302629</v>
@@ -16216,7 +16156,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530141383507464</v>
+        <v>1.507937902695977</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.844846367505364</v>
@@ -16305,7 +16245,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.539363611581454</v>
+        <v>1.522479875507692</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.902352793020012</v>
@@ -16394,7 +16334,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533297385467518</v>
+        <v>1.5156559389685</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.885014987906438</v>
@@ -16483,7 +16423,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.534779534778858</v>
+        <v>1.515039272189407</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.960455185429794</v>
@@ -16572,7 +16512,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54225579272766</v>
+        <v>1.523272424800362</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.9231686196369</v>
@@ -16661,7 +16601,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544143384031226</v>
+        <v>1.527021278026269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.872468706537117</v>
@@ -16750,7 +16690,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550146063109251</v>
+        <v>1.535449158627698</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.932404424941654</v>
@@ -16839,7 +16779,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.549749477364375</v>
+        <v>1.535796306824181</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.647181716964921</v>
@@ -16928,7 +16868,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558473679978856</v>
+        <v>1.534973465541185</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.756757232656512</v>
@@ -17017,7 +16957,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568848511605081</v>
+        <v>1.547776276142183</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.883142581932951</v>
@@ -17106,7 +17046,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583591579574602</v>
+        <v>1.559796249651308</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.265446494009423</v>
@@ -17195,7 +17135,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577771168959758</v>
+        <v>1.554213364479374</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.554958552486368</v>
@@ -17284,7 +17224,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567932063013861</v>
+        <v>1.545864327980686</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.378105833783644</v>
@@ -17373,7 +17313,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560542494838075</v>
+        <v>1.538118419109223</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.300419635883292</v>
@@ -17462,7 +17402,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.552996136452111</v>
+        <v>1.528570844765382</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.027368878144618</v>
@@ -17551,7 +17491,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556512986280183</v>
+        <v>1.52991737458717</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.320408865804766</v>
@@ -17640,7 +17580,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537216241551832</v>
+        <v>1.510903418121372</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.504863353749439</v>
@@ -17729,7 +17669,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.529964551280548</v>
+        <v>1.502103225949117</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.24907801670109</v>
@@ -17818,7 +17758,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523712584933337</v>
+        <v>1.496368307504485</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.210243577079737</v>
@@ -17907,7 +17847,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527108110128058</v>
+        <v>1.500483406876633</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.148241816316419</v>
@@ -17996,7 +17936,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527611829540209</v>
+        <v>1.501799349311022</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.220280572405867</v>
@@ -18085,7 +18025,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.514097053648475</v>
+        <v>1.488846572101336</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.123693321765196</v>
@@ -18174,7 +18114,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510637707885537</v>
+        <v>1.483668627425776</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.239490208821971</v>
@@ -18263,7 +18203,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.516199970770677</v>
+        <v>1.489173525937845</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.898531391654481</v>
@@ -18352,7 +18292,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522544622062213</v>
+        <v>1.497395751760158</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.358163117362007</v>
@@ -18441,7 +18381,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.522317737267731</v>
+        <v>1.495910218317016</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.384010192383162</v>
@@ -18530,7 +18470,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538800001298301</v>
+        <v>1.505970976451585</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.172269084806979</v>
@@ -18619,7 +18559,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53717131202383</v>
+        <v>1.499899498083451</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.499655561439638</v>
@@ -18708,7 +18648,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.495915886194458</v>
+        <v>1.469584715132052</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.301944866854349</v>
@@ -18797,7 +18737,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.49135001306928</v>
+        <v>1.465612149699949</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.252834859919551</v>
@@ -18886,7 +18826,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487297602949425</v>
+        <v>1.457673888498668</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.289917813287552</v>
@@ -18975,7 +18915,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499032570138654</v>
+        <v>1.462651229114305</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.277695283977482</v>
@@ -19064,7 +19004,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.503538836229622</v>
+        <v>1.468785904386457</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.296287839551806</v>
@@ -19350,7 +19290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.517051278106113</v>
+        <v>1.510703518923119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.369664231547087</v>
@@ -19439,7 +19379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518347106003935</v>
+        <v>1.505225778632176</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.38235069933323</v>
@@ -19528,7 +19468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.517073513732018</v>
+        <v>1.506404620380809</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.481597482951028</v>
@@ -19617,7 +19557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506710883062495</v>
+        <v>1.498707713766992</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.417460696283729</v>
@@ -19706,7 +19646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508235212551716</v>
+        <v>1.501557556288129</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.481018708809409</v>
@@ -19795,7 +19735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.512632382134582</v>
+        <v>1.503870440462856</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.354643299076398</v>
@@ -19884,7 +19824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508743302246675</v>
+        <v>1.498153935689152</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.333262914610389</v>
@@ -19973,7 +19913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.522106612798843</v>
+        <v>1.505422935761473</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.364043280473898</v>
@@ -20062,7 +20002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.513175635968952</v>
+        <v>1.496472406027312</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.419468206276765</v>
@@ -20151,7 +20091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.51258993091331</v>
+        <v>1.500234846438167</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.347095773928263</v>
@@ -20240,7 +20180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522206956870609</v>
+        <v>1.505777513841959</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.263599666699443</v>
@@ -20329,7 +20269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.537958998852156</v>
+        <v>1.517339420325033</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.38119558202236</v>
@@ -20418,7 +20358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.547452666203317</v>
+        <v>1.53135356688368</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.313869694301172</v>
@@ -20507,7 +20447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.5266412740423</v>
+        <v>1.517099287994381</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.414956071563009</v>
@@ -20596,7 +20536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526387507251561</v>
+        <v>1.515155012011466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.303872831087815</v>
@@ -20685,7 +20625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.529071378588145</v>
+        <v>1.514267522852668</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.405710148110769</v>
@@ -20774,7 +20714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.516701736389539</v>
+        <v>1.505557772664941</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.321507172840988</v>
@@ -20863,7 +20803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.512913037586127</v>
+        <v>1.501840076172871</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.363937074136683</v>
@@ -20952,7 +20892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.527512051251328</v>
+        <v>1.51176514497549</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.379498874776853</v>
@@ -21041,7 +20981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.5069240934158</v>
+        <v>1.494479503803161</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.367582642193969</v>
@@ -21130,7 +21070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.496108907352089</v>
+        <v>1.481193684806723</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.290217188282917</v>
@@ -21219,7 +21159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487897543720383</v>
+        <v>1.471811537814266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.307750891927901</v>
@@ -21308,7 +21248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.483121678792929</v>
+        <v>1.472852808396302</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.288524751163624</v>
@@ -21397,7 +21337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.484764609284257</v>
+        <v>1.474004794049745</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.323500985266209</v>
@@ -21486,7 +21426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.480328463606037</v>
+        <v>1.470411027272146</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.021796269263589</v>
@@ -21575,7 +21515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.491882666020059</v>
+        <v>1.476733247498479</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.411791335760836</v>
@@ -21664,7 +21604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.49797486578189</v>
+        <v>1.484215056659158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.327462303966461</v>
@@ -21753,7 +21693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.497010403644685</v>
+        <v>1.484725448087443</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.399391426771118</v>
@@ -21842,7 +21782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.50543204348966</v>
+        <v>1.48741131097206</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.293906131583846</v>
@@ -21931,7 +21871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.493646733721816</v>
+        <v>1.471300684140683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.229159813786034</v>
@@ -22020,7 +21960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.498407674979927</v>
+        <v>1.471238744066735</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.230855907490152</v>
@@ -22109,7 +22049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.497194111693858</v>
+        <v>1.473954631188139</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.397581830960165</v>
@@ -22198,7 +22138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.497601953012349</v>
+        <v>1.474597024088186</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.33897368210961</v>
@@ -22287,7 +22227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.495791160933361</v>
+        <v>1.474258033779059</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.253559687730439</v>
@@ -22376,7 +22316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.499935543655268</v>
+        <v>1.478377319802967</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.474459319434218</v>
@@ -22465,7 +22405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.493449698133479</v>
+        <v>1.474905295938043</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.351327237770048</v>
@@ -22554,7 +22494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489977111186538</v>
+        <v>1.47552343806501</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.366418347940856</v>
@@ -22643,7 +22583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.489867504273549</v>
+        <v>1.472404681468933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.474450368494424</v>
@@ -22732,7 +22672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.484177109426219</v>
+        <v>1.458301432163246</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.343854174040817</v>
@@ -22821,7 +22761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.479639577851674</v>
+        <v>1.460266212537639</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.341750853150776</v>
@@ -22910,7 +22850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.485509677079369</v>
+        <v>1.46555216716124</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.456983431882906</v>
@@ -22999,7 +22939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.471772547841835</v>
+        <v>1.45406783735988</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.444694144027801</v>
@@ -23088,7 +23028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.465762447020024</v>
+        <v>1.44963550958</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.486173209908432</v>
@@ -23177,7 +23117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.470069336030065</v>
+        <v>1.448621094613528</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.389555337884045</v>
@@ -23266,7 +23206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.480123439482538</v>
+        <v>1.465670514273379</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.476177141160528</v>
@@ -23355,7 +23295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.477329383280205</v>
+        <v>1.459109052862298</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.42417767753615</v>
@@ -23444,7 +23384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.476385313027862</v>
+        <v>1.4550141726617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.464071179582505</v>
@@ -23533,7 +23473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.466871093242759</v>
+        <v>1.445692433605715</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.510174831859308</v>
@@ -23622,7 +23562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.44764195420971</v>
+        <v>1.429997822876184</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.386650659247861</v>
@@ -23711,7 +23651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.450820449441758</v>
+        <v>1.435104975431872</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.406088370117653</v>
@@ -23800,7 +23740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.465141600182915</v>
+        <v>1.446480941464106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.456979308073942</v>
@@ -23889,7 +23829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.470500993474855</v>
+        <v>1.447596889618488</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.46550030246012</v>
@@ -23978,7 +23918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.464169122611751</v>
+        <v>1.440879744256131</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.429874600741659</v>
@@ -24264,7 +24204,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607158773436409</v>
+        <v>1.585309574067303</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.047381117039191</v>
@@ -24353,7 +24293,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.603212198977364</v>
+        <v>1.579998504987701</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.190335093939031</v>
@@ -24442,7 +24382,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614751438525858</v>
+        <v>1.592216310159474</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.068129921771662</v>
@@ -24531,7 +24471,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597656618399298</v>
+        <v>1.57887992446663</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.00437386252358</v>
@@ -24620,7 +24560,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.616210307545258</v>
+        <v>1.601229777227958</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.046140878158401</v>
@@ -24709,7 +24649,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.625031759255148</v>
+        <v>1.611170711837452</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.905573618789717</v>
@@ -24798,7 +24738,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623213159529524</v>
+        <v>1.608687687074895</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.51589963533553</v>
@@ -24887,7 +24827,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61207538426635</v>
+        <v>1.596163266633004</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.338729250447335</v>
@@ -24976,7 +24916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.616285762852626</v>
+        <v>1.600363035300773</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.152034467339261</v>
@@ -25065,7 +25005,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.633731010402165</v>
+        <v>1.615510265892546</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.601022700039882</v>
@@ -25154,7 +25094,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.649087190943936</v>
+        <v>1.629813510345505</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.282820379247341</v>
@@ -25243,7 +25183,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.666841507784658</v>
+        <v>1.644198991570902</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.388513602938631</v>
@@ -25332,7 +25272,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652300119110165</v>
+        <v>1.631117051222704</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.063160111079617</v>
@@ -25421,7 +25361,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.647815436817087</v>
+        <v>1.624008402820029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.096817375687356</v>
@@ -25510,7 +25450,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635989391405537</v>
+        <v>1.604023679368338</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.791551889088526</v>
@@ -25599,7 +25539,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.634095920488998</v>
+        <v>1.602815279144706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.023387691581791</v>
@@ -25688,7 +25628,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650105640443301</v>
+        <v>1.62440942393472</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.138597253191659</v>
@@ -25777,7 +25717,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656126920455817</v>
+        <v>1.632833491968612</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.12181390689843</v>
@@ -25866,7 +25806,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666744898414852</v>
+        <v>1.646055916527869</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.091316198369448</v>
@@ -25955,7 +25895,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.673874358421209</v>
+        <v>1.65388143795917</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.050365507514782</v>
@@ -26044,7 +25984,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678460218904309</v>
+        <v>1.658366258263248</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.178697894587088</v>
@@ -26133,7 +26073,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.684973009471469</v>
+        <v>1.66593234961282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.106421364720631</v>
@@ -26222,7 +26162,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.703172566262646</v>
+        <v>1.687857295858733</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.110631045633357</v>
@@ -26311,7 +26251,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704264346916729</v>
+        <v>1.691103261575998</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.072487823072449</v>
@@ -26400,7 +26340,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.675488526010386</v>
+        <v>1.670343786553396</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.7005789661637</v>
@@ -26489,7 +26429,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.66483024978165</v>
+        <v>1.656730285954266</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.642939650434335</v>
@@ -26578,7 +26518,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663225310296976</v>
+        <v>1.656464380243472</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.500065354199106</v>
@@ -26667,7 +26607,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.675019836100542</v>
+        <v>1.666772516080124</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.370076280612226</v>
@@ -26756,7 +26696,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682093459324391</v>
+        <v>1.675100950123431</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.590599196601489</v>
@@ -26845,7 +26785,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.69634276807472</v>
+        <v>1.692129464193763</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.539954853767708</v>
@@ -26934,7 +26874,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683521935996234</v>
+        <v>1.679340040644565</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.532808395760821</v>
@@ -27023,7 +26963,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.671511762287355</v>
+        <v>1.662146076955308</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.628073588659076</v>
@@ -27112,7 +27052,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.662353413435844</v>
+        <v>1.647503560709739</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.578386657116139</v>
@@ -27201,7 +27141,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667304212533252</v>
+        <v>1.65333566489425</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.655621128721999</v>
@@ -27290,7 +27230,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65416494781815</v>
+        <v>1.635205387833328</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.549121897094427</v>
@@ -27379,7 +27319,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.650643237752592</v>
+        <v>1.631301169459488</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.442699544778948</v>
@@ -27468,7 +27408,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.646017877326121</v>
+        <v>1.626076579357282</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.418916768769591</v>
@@ -27557,7 +27497,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.62250079474695</v>
+        <v>1.595224389798803</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.354587324668527</v>
@@ -27646,7 +27586,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607599299501485</v>
+        <v>1.575752646260816</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.474020596336455</v>
@@ -27735,7 +27675,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.621568614797357</v>
+        <v>1.581298864037362</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.147072757356639</v>
@@ -27824,7 +27764,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.631616728804216</v>
+        <v>1.592914335618226</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.972516879446418</v>
@@ -27913,7 +27853,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631920025534669</v>
+        <v>1.59122761158707</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.870676856009134</v>
@@ -28002,7 +27942,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632859077301252</v>
+        <v>1.582069701660171</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.17718316159741</v>
@@ -28091,7 +28031,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626418716503751</v>
+        <v>1.571655318144237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.117681168075859</v>
@@ -28180,7 +28120,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.625289142285353</v>
+        <v>1.567907946285705</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.09355044149604</v>
@@ -28269,7 +28209,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631114506354514</v>
+        <v>1.57742465700778</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.835448170203256</v>
@@ -28358,7 +28298,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615714353219434</v>
+        <v>1.567929827346729</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.230759926419527</v>
@@ -28447,7 +28387,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.621642038739865</v>
+        <v>1.572414119416135</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.108106862254619</v>
@@ -28536,7 +28476,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601653952101814</v>
+        <v>1.549866865340477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.973620275264168</v>
@@ -28625,7 +28565,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587928694717246</v>
+        <v>1.540863316190419</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.913561793705377</v>
@@ -28714,7 +28654,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.577137746207747</v>
+        <v>1.528933993223312</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.883819870226971</v>
@@ -28803,7 +28743,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.570078064359937</v>
+        <v>1.524560171956966</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.872189386258692</v>
@@ -28892,7 +28832,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.579315099120573</v>
+        <v>1.534198260774861</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.840554024816181</v>
@@ -29178,7 +29118,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.349822716071003</v>
+        <v>1.335925141658669</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.313735005752892</v>
@@ -29267,7 +29207,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.365465540500573</v>
+        <v>1.350051701228653</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.219271092315677</v>
@@ -29356,7 +29296,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.35568637783499</v>
+        <v>1.338399824600192</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.201934887421419</v>
@@ -29445,7 +29385,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363017815397885</v>
+        <v>1.344850798295255</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.161433374238244</v>
@@ -29534,7 +29474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.354789391782146</v>
+        <v>1.335963335241652</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.211983731474117</v>
@@ -29623,7 +29563,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.37493257810254</v>
+        <v>1.353352516084451</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.061164422294713</v>
@@ -29712,7 +29652,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376416520419704</v>
+        <v>1.356864616374138</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.156159826477332</v>
@@ -29801,7 +29741,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.363865171808526</v>
+        <v>1.34355382628802</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.174528521804062</v>
@@ -29890,7 +29830,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.367593997883828</v>
+        <v>1.340942315491798</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.088011937906733</v>
@@ -29979,7 +29919,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.390038867048087</v>
+        <v>1.364920250847477</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.951119729515964</v>
@@ -30068,7 +30008,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.366949908058205</v>
+        <v>1.346556056450849</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.079240561723628</v>
@@ -30157,7 +30097,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.371468608191248</v>
+        <v>1.350478995970267</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.152958286084095</v>
@@ -30246,7 +30186,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365805571062883</v>
+        <v>1.343675583460413</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.023879849275781</v>
@@ -30335,7 +30275,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.319115385636447</v>
+        <v>1.298002313768884</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.10934166501134</v>
@@ -30424,7 +30364,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.294925077571466</v>
+        <v>1.269273605542328</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.091381773514916</v>
@@ -30513,7 +30453,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.292571361737302</v>
+        <v>1.267440026851401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.162903909569307</v>
@@ -30602,7 +30542,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.293005476964109</v>
+        <v>1.268378344650487</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.063255195627682</v>
@@ -30691,7 +30631,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.305499627258678</v>
+        <v>1.286290134234268</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.202888895193858</v>
@@ -30780,7 +30720,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.31998056476575</v>
+        <v>1.301234061583894</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.160304191560507</v>
@@ -30869,7 +30809,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.319217563309928</v>
+        <v>1.297960392360478</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.079384002899176</v>
@@ -30958,7 +30898,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.324233875723993</v>
+        <v>1.300886491199552</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.089100652485355</v>
@@ -31047,7 +30987,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.316174335742569</v>
+        <v>1.29257421419349</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.112664902223981</v>
@@ -31136,7 +31076,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.320156052142908</v>
+        <v>1.299594660160474</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.127551195581993</v>
@@ -31225,7 +31165,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.318646941828465</v>
+        <v>1.299080604058775</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.087821945052762</v>
@@ -31314,7 +31254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.340826341911693</v>
+        <v>1.317264297213859</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.220242561531692</v>
@@ -31403,7 +31343,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.34283543810833</v>
+        <v>1.313544402721991</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.123319955843787</v>
@@ -31492,7 +31432,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.326804623092977</v>
+        <v>1.301053006956885</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.072450430392891</v>
@@ -31581,7 +31521,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.351363344991128</v>
+        <v>1.327163263413067</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.845469055070779</v>
@@ -31670,7 +31610,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.377051552478481</v>
+        <v>1.349782207011467</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.046966368699084</v>
@@ -31759,7 +31699,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.405023273220938</v>
+        <v>1.381346566422477</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.143125392349286</v>
@@ -31848,7 +31788,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.418113922003401</v>
+        <v>1.390098691231483</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.263976580329065</v>
@@ -31937,7 +31877,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.389837763335727</v>
+        <v>1.361004681813841</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.394795260838939</v>
@@ -32026,7 +31966,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.377595769923987</v>
+        <v>1.347818481013921</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.310884386088798</v>
@@ -32115,7 +32055,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.371967156475059</v>
+        <v>1.340936419050393</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.274019223580997</v>
@@ -32204,7 +32144,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.371807210719612</v>
+        <v>1.340003862664935</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.28969815805694</v>
@@ -32293,7 +32233,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.368068869710417</v>
+        <v>1.337525393424154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.221668943204809</v>
@@ -32382,7 +32322,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.35650678883545</v>
+        <v>1.322537253870927</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.250220506197142</v>
@@ -32471,7 +32411,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.343386447551669</v>
+        <v>1.30349478703818</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.319549041260051</v>
@@ -32560,7 +32500,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.321800221670152</v>
+        <v>1.291558335801809</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.149993483072699</v>
@@ -32649,7 +32589,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.296526213944578</v>
+        <v>1.270456230539057</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.179343618552052</v>
@@ -32738,7 +32678,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.301116146763182</v>
+        <v>1.276623655740688</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.058413847766011</v>
@@ -32827,7 +32767,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.304501294082807</v>
+        <v>1.27676994157034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.165100583523071</v>
@@ -32916,7 +32856,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.284359487674822</v>
+        <v>1.25810872311705</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.112721714079788</v>
@@ -33005,7 +32945,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.292291488654507</v>
+        <v>1.265163363540398</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.151275816686026</v>
@@ -33094,7 +33034,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.307495138533774</v>
+        <v>1.28020160153529</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.187228977665642</v>
@@ -33183,7 +33123,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.309329741912383</v>
+        <v>1.281338527801584</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.059175650058472</v>
@@ -33272,7 +33212,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.327558291561148</v>
+        <v>1.301884504033054</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.186535403267234</v>
@@ -33361,7 +33301,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.331799504589097</v>
+        <v>1.303042597983323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.181492360045066</v>
@@ -33450,7 +33390,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.309516002545894</v>
+        <v>1.283849137667601</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.177488186632968</v>
@@ -33539,7 +33479,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.291824337171425</v>
+        <v>1.2732730120466</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.278820656071809</v>
@@ -33628,7 +33568,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.297146933463576</v>
+        <v>1.278651538624794</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.298625562425828</v>
@@ -33717,7 +33657,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.320303687498239</v>
+        <v>1.301829433632695</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.320907706053199</v>
@@ -33806,7 +33746,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.347739565953095</v>
+        <v>1.326083626617864</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.237635164627199</v>
